--- a/data/Subset 1/Video Mosiac 11th grade World Series.xlsx
+++ b/data/Subset 1/Video Mosiac 11th grade World Series.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -726,7 +726,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -887,7 +887,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -933,7 +933,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1002,7 +1002,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1025,7 +1025,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1071,7 +1071,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1117,7 +1117,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1140,7 +1140,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1163,7 +1163,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1186,7 +1186,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1232,7 +1232,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1255,7 +1255,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1301,7 +1301,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9167,7 +9167,7 @@
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -9213,7 +9213,7 @@
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -9374,7 +9374,7 @@
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -9443,7 +9443,7 @@
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -9466,7 +9466,7 @@
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -9489,7 +9489,7 @@
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -9512,7 +9512,7 @@
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -23577,7 +23577,7 @@
       <c r="C1046" t="inlineStr"/>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1046" t="inlineStr">
@@ -23615,7 +23615,7 @@
       <c r="C1048" t="inlineStr"/>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1048" t="inlineStr">
@@ -23793,7 +23793,7 @@
       <c r="C1058" t="inlineStr"/>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1058" t="inlineStr">
@@ -24211,7 +24211,7 @@
       <c r="C1080" t="inlineStr"/>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr">
@@ -24249,7 +24249,7 @@
       <c r="C1082" t="inlineStr"/>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1082" t="inlineStr">
@@ -24287,7 +24287,7 @@
       <c r="C1084" t="inlineStr"/>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr">
@@ -24515,7 +24515,7 @@
       <c r="C1096" t="inlineStr"/>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1096" t="inlineStr">
@@ -24553,7 +24553,7 @@
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1098" t="inlineStr">
@@ -24610,7 +24610,7 @@
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1101" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr">
@@ -24838,7 +24838,7 @@
       <c r="C1113" t="inlineStr"/>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
@@ -24876,7 +24876,7 @@
       <c r="C1115" t="inlineStr"/>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
@@ -25009,7 +25009,7 @@
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -25085,7 +25085,7 @@
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -25275,7 +25275,7 @@
       <c r="C1136" t="inlineStr"/>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -25294,7 +25294,7 @@
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -25351,7 +25351,7 @@
       <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
@@ -25389,7 +25389,7 @@
       <c r="C1142" t="inlineStr"/>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -25465,7 +25465,7 @@
       <c r="C1146" t="inlineStr"/>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr">
@@ -25522,7 +25522,7 @@
       <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1149" t="inlineStr">
@@ -25560,7 +25560,7 @@
       <c r="C1151" t="inlineStr"/>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1151" t="inlineStr">
@@ -25579,7 +25579,7 @@
       <c r="C1152" t="inlineStr"/>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1152" t="inlineStr">
@@ -25845,7 +25845,7 @@
       <c r="C1166" t="inlineStr"/>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1166" t="inlineStr">
@@ -25902,7 +25902,7 @@
       <c r="C1169" t="inlineStr"/>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1169" t="inlineStr">
@@ -25940,7 +25940,7 @@
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1171" t="inlineStr">
@@ -25978,7 +25978,7 @@
       <c r="C1173" t="inlineStr"/>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1173" t="inlineStr">
@@ -26016,7 +26016,7 @@
       <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr">
@@ -26130,7 +26130,7 @@
       <c r="C1181" t="inlineStr"/>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr">
@@ -26187,7 +26187,7 @@
       <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr">
@@ -26206,7 +26206,7 @@
       <c r="C1185" t="inlineStr"/>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1185" t="inlineStr">
@@ -26377,7 +26377,7 @@
       <c r="C1194" t="inlineStr"/>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr">
@@ -26586,7 +26586,7 @@
       <c r="C1205" t="inlineStr"/>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr">
@@ -26624,7 +26624,7 @@
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr">
@@ -26681,7 +26681,7 @@
       <c r="C1210" t="inlineStr"/>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1210" t="inlineStr">
@@ -26700,7 +26700,7 @@
       <c r="C1211" t="inlineStr"/>
       <c r="D1211" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1211" t="inlineStr">
@@ -26719,7 +26719,7 @@
       <c r="C1212" t="inlineStr"/>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr">
@@ -26757,7 +26757,7 @@
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr">
@@ -26833,7 +26833,7 @@
       <c r="C1218" t="inlineStr"/>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr">
@@ -26852,7 +26852,7 @@
       <c r="C1219" t="inlineStr"/>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr">
@@ -26928,7 +26928,7 @@
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr">
@@ -27099,7 +27099,7 @@
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr">
@@ -27137,7 +27137,7 @@
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr">
@@ -27175,7 +27175,7 @@
       <c r="C1236" t="inlineStr"/>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr">
@@ -27479,7 +27479,7 @@
       <c r="C1252" t="inlineStr"/>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr">
@@ -27935,7 +27935,7 @@
       <c r="C1276" t="inlineStr"/>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr">
@@ -27954,7 +27954,7 @@
       <c r="C1277" t="inlineStr"/>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr">
@@ -27992,7 +27992,7 @@
       <c r="C1279" t="inlineStr"/>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr">
@@ -28011,7 +28011,7 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr">
@@ -28030,7 +28030,7 @@
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr">
@@ -28125,7 +28125,7 @@
       <c r="C1286" t="inlineStr"/>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr">
@@ -28144,7 +28144,7 @@
       <c r="C1287" t="inlineStr"/>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr">
@@ -28182,7 +28182,7 @@
       <c r="C1289" t="inlineStr"/>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr">
@@ -28201,7 +28201,7 @@
       <c r="C1290" t="inlineStr"/>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr">
@@ -28239,7 +28239,7 @@
       <c r="C1292" t="inlineStr"/>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr">
@@ -28277,7 +28277,7 @@
       <c r="C1294" t="inlineStr"/>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr">
@@ -28315,7 +28315,7 @@
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1296" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="C1298" t="inlineStr"/>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
@@ -28410,7 +28410,7 @@
       <c r="C1301" t="inlineStr"/>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1301" t="inlineStr">
@@ -28467,7 +28467,7 @@
       <c r="C1304" t="inlineStr"/>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr">
@@ -28524,7 +28524,7 @@
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr">
@@ -28581,7 +28581,7 @@
       <c r="C1310" t="inlineStr"/>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -28676,7 +28676,7 @@
       <c r="C1315" t="inlineStr"/>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -28714,7 +28714,7 @@
       <c r="C1317" t="inlineStr"/>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr">
@@ -28885,7 +28885,7 @@
       <c r="C1326" t="inlineStr"/>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr">
@@ -28904,7 +28904,7 @@
       <c r="C1327" t="inlineStr"/>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
@@ -28980,7 +28980,7 @@
       <c r="C1331" t="inlineStr"/>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr">
@@ -28999,7 +28999,7 @@
       <c r="C1332" t="inlineStr"/>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr">
@@ -29037,7 +29037,7 @@
       <c r="C1334" t="inlineStr"/>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr">
@@ -29132,7 +29132,7 @@
       <c r="C1339" t="inlineStr"/>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1339" t="inlineStr">
@@ -29151,7 +29151,7 @@
       <c r="C1340" t="inlineStr"/>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1340" t="inlineStr">
@@ -29170,7 +29170,7 @@
       <c r="C1341" t="inlineStr"/>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1341" t="inlineStr">
@@ -29189,7 +29189,7 @@
       <c r="C1342" t="inlineStr"/>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1342" t="inlineStr">
@@ -29246,7 +29246,7 @@
       <c r="C1345" t="inlineStr"/>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1345" t="inlineStr">
@@ -29265,7 +29265,7 @@
       <c r="C1346" t="inlineStr"/>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -29284,7 +29284,7 @@
       <c r="C1347" t="inlineStr"/>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -29550,7 +29550,7 @@
       <c r="C1361" t="inlineStr"/>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr">
@@ -29569,7 +29569,7 @@
       <c r="C1362" t="inlineStr"/>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1362" t="inlineStr">
@@ -29626,7 +29626,7 @@
       <c r="C1365" t="inlineStr"/>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1365" t="inlineStr">
@@ -29645,7 +29645,7 @@
       <c r="C1366" t="inlineStr"/>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr">
@@ -29873,7 +29873,7 @@
       <c r="C1378" t="inlineStr"/>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr">
@@ -29987,7 +29987,7 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr">
@@ -30063,7 +30063,7 @@
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr">
@@ -30215,7 +30215,7 @@
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr">
@@ -30329,7 +30329,7 @@
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr">
@@ -30348,7 +30348,7 @@
       <c r="C1403" t="inlineStr"/>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr">
@@ -30367,7 +30367,7 @@
       <c r="C1404" t="inlineStr"/>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr">
@@ -30633,7 +30633,7 @@
       <c r="C1418" t="inlineStr"/>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
@@ -30994,7 +30994,7 @@
       <c r="C1437" t="inlineStr"/>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
@@ -31013,7 +31013,7 @@
       <c r="C1438" t="inlineStr"/>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
@@ -31032,7 +31032,7 @@
       <c r="C1439" t="inlineStr"/>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -31051,7 +31051,7 @@
       <c r="C1440" t="inlineStr"/>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
@@ -31089,7 +31089,7 @@
       <c r="C1442" t="inlineStr"/>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -31165,7 +31165,7 @@
       <c r="C1446" t="inlineStr"/>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1446" t="inlineStr">
@@ -31374,7 +31374,7 @@
       <c r="C1457" t="inlineStr"/>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
@@ -31431,7 +31431,7 @@
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
@@ -31659,7 +31659,7 @@
       <c r="C1472" t="inlineStr"/>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
@@ -31716,7 +31716,7 @@
       <c r="C1475" t="inlineStr"/>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1475" t="inlineStr">
@@ -31773,7 +31773,7 @@
       <c r="C1478" t="inlineStr"/>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
@@ -31792,7 +31792,7 @@
       <c r="C1479" t="inlineStr"/>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
@@ -31830,7 +31830,7 @@
       <c r="C1481" t="inlineStr"/>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr">
@@ -31887,7 +31887,7 @@
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr">
@@ -31944,7 +31944,7 @@
       <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr">
@@ -31963,7 +31963,7 @@
       <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1488" t="inlineStr">
@@ -32001,7 +32001,7 @@
       <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr">
